--- a/data/2023/ssg/6,15_DE-12.xlsx
+++ b/data/2023/ssg/6,15_DE-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="696">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -349,730 +349,739 @@
     <t>1.1894 - 12.1905; 13.1906(1907) - 15.1908(1910); 16.1922; 17.1910(1911) - 25.1927(1928); [N.F.] 1=26.1947; 2=27.1949; 3.1950 - 55.1994/98; 55=80.1998,2; 56=81.1995(1996) - 74=99.2015 ; 100 (2016)-</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1a;3/10;7;9;15;19;20;25;385;F 36</t>
+  </si>
+  <si>
+    <t>5800-2</t>
+  </si>
+  <si>
+    <t>Byzantinische Zeitschrift</t>
+  </si>
+  <si>
+    <t>de Gruyter</t>
+  </si>
+  <si>
+    <t>Berlin;New York, NY</t>
+  </si>
+  <si>
+    <t>0007-7704</t>
+  </si>
+  <si>
+    <t>870;880;930</t>
+  </si>
+  <si>
+    <t>FID-NAHOST-DE-3;1;6,15;6,23;0</t>
+  </si>
+  <si>
+    <t>1211389-X</t>
+  </si>
+  <si>
+    <t>1.1892 - 22.1913; 23.1914/19(1920) - 42.1943/49; 43.1950 -</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>3;8;18;19;20;23;28;F 42;46;109;361;384;385;Tr 2;700;Mch 1;Kn 28;F 36</t>
+  </si>
+  <si>
+    <t>759754-X</t>
+  </si>
+  <si>
+    <t>Byzantion Nea Hellás</t>
+  </si>
+  <si>
+    <t>Univ.</t>
+  </si>
+  <si>
+    <t>Casilla, Santiago</t>
+  </si>
+  <si>
+    <t>0716-2138</t>
+  </si>
+  <si>
+    <t>6,15;1;6,23</t>
+  </si>
+  <si>
+    <t>1.1970 -</t>
+  </si>
+  <si>
+    <t>6294-7</t>
+  </si>
+  <si>
+    <t>Corso di Cultura sull'Arte Ravennate e Bizantina</t>
+  </si>
+  <si>
+    <t>Ed. del Girasole</t>
+  </si>
+  <si>
+    <t>Ravenna</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>6,15;9,10</t>
+  </si>
+  <si>
+    <t>342371-2</t>
+  </si>
+  <si>
+    <t>[2.]1956 - [6.]1959; 7.1960 - 36.1989</t>
+  </si>
+  <si>
+    <t>7459-7</t>
+  </si>
+  <si>
+    <t>Zbornik radova Vizantološkog Instituta</t>
+  </si>
+  <si>
+    <t>Naučno Delo</t>
+  </si>
+  <si>
+    <t>Beograd</t>
+  </si>
+  <si>
+    <t>srp;fre</t>
+  </si>
+  <si>
+    <t>0584-9888</t>
+  </si>
+  <si>
+    <t>1.1952 -</t>
+  </si>
+  <si>
+    <t>4;7;20</t>
+  </si>
+  <si>
+    <t>8141-3</t>
+  </si>
+  <si>
+    <t>Etudes byzantines et post-byzantines</t>
+  </si>
+  <si>
+    <t>Ed. Trinita</t>
+  </si>
+  <si>
+    <t>Iaşi</t>
+  </si>
+  <si>
+    <t>0259-0913</t>
+  </si>
+  <si>
+    <t>6,15;6,23</t>
+  </si>
+  <si>
+    <t>1.1979-7 (2016) ; Nouvelle série, tome 1- = 8 (2019)-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1a;19</t>
+  </si>
+  <si>
+    <t>412478-9</t>
+  </si>
+  <si>
+    <t>Krētika chronika</t>
+  </si>
+  <si>
+    <t>Hērakleion</t>
+  </si>
+  <si>
+    <t>gre</t>
+  </si>
+  <si>
+    <t>0454-5206</t>
+  </si>
+  <si>
+    <t>910;940</t>
+  </si>
+  <si>
+    <t>6,12;6,14;6,15</t>
+  </si>
+  <si>
+    <t>1.1947 - 20.1966; 2.Per. 21.1969 - 25.1973; 3.Per. 26.1986 -</t>
+  </si>
+  <si>
+    <t>413429-1</t>
+  </si>
+  <si>
+    <t>ra;d</t>
+  </si>
+  <si>
+    <t>Corpus fontium historiae Byzantinae</t>
+  </si>
+  <si>
+    <t>de @Gruyter;Dumbarton Oaks Center for Byzantine Studies</t>
+  </si>
+  <si>
+    <t>Berolini;Bostoniae;Washington, D.C.</t>
+  </si>
+  <si>
+    <t>eng;grc</t>
+  </si>
+  <si>
+    <t>0589-8048</t>
+  </si>
+  <si>
+    <t>930;870</t>
+  </si>
+  <si>
+    <t>6,23;6,15</t>
+  </si>
+  <si>
+    <t>1.1967 -</t>
+  </si>
+  <si>
+    <t>414119-2</t>
+  </si>
+  <si>
+    <t>Makedonika &lt;Thessalonikē&gt;</t>
+  </si>
+  <si>
+    <t>Thessalonikē</t>
+  </si>
+  <si>
+    <t>0076-289X</t>
+  </si>
+  <si>
+    <t>9,10;6,15;6,16</t>
+  </si>
+  <si>
+    <t>1.1940 -</t>
+  </si>
+  <si>
+    <t>1a;16</t>
+  </si>
+  <si>
+    <t>27575-X</t>
+  </si>
+  <si>
+    <t>Peloponnēsiaka</t>
+  </si>
+  <si>
+    <t>910;940;914.3;943</t>
+  </si>
+  <si>
+    <t>Parartēma</t>
+  </si>
+  <si>
+    <t>1.1974 -</t>
+  </si>
+  <si>
+    <t>420491-8</t>
+  </si>
+  <si>
+    <t>rb;d</t>
+  </si>
+  <si>
+    <t>Byzantina keimena kai meletai</t>
+  </si>
+  <si>
+    <t>Kentro Byzantinōn Ereunōn</t>
+  </si>
+  <si>
+    <t>grc;gre;eng</t>
+  </si>
+  <si>
+    <t>1106-6180</t>
+  </si>
+  <si>
+    <t>880</t>
+  </si>
+  <si>
+    <t>1113500-1</t>
+  </si>
+  <si>
+    <t>Epetēris Hidrymatos Neoellēnikōn Spudōn</t>
+  </si>
+  <si>
+    <t>1.1979/80 - 13.2005/06[?]</t>
+  </si>
+  <si>
+    <t>41714-2</t>
+  </si>
+  <si>
+    <t>Bulletin d'information et de coordination</t>
+  </si>
+  <si>
+    <t>Athènes</t>
+  </si>
+  <si>
+    <t>0571-5857</t>
+  </si>
+  <si>
+    <t>880;940</t>
+  </si>
+  <si>
+    <t>1.1964 - 21.2000/01; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>802568-X</t>
+  </si>
+  <si>
+    <t>Vedute sull'Egitto antico</t>
+  </si>
+  <si>
+    <t>Giappichelli</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>6,11;6,12;6,15;6,21</t>
+  </si>
+  <si>
+    <t>1.1974/79(1981) - 6.1995/96(1997)[?]</t>
+  </si>
+  <si>
+    <t>803003-0</t>
+  </si>
+  <si>
+    <t>Horos</t>
+  </si>
+  <si>
+    <t>Typ. Keimena</t>
+  </si>
+  <si>
+    <t>1105-2163</t>
+  </si>
+  <si>
+    <t>930</t>
+  </si>
+  <si>
+    <t>6,14;6,15</t>
+  </si>
+  <si>
+    <t>1.1983 - 14/16.2000/03(2003); 17/21.2004/09(2010) -</t>
+  </si>
+  <si>
+    <t>16;29</t>
+  </si>
+  <si>
+    <t>429988-7</t>
+  </si>
+  <si>
+    <t>Byzantina</t>
+  </si>
+  <si>
+    <t>Gävle</t>
+  </si>
+  <si>
+    <t>1.1972(1973) - 3/4.1974/75(1977)[?]</t>
+  </si>
+  <si>
+    <t>806187-7</t>
+  </si>
+  <si>
+    <t>Byzantium and the north</t>
+  </si>
+  <si>
+    <t>Seura</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
+  </si>
+  <si>
+    <t>0356-1879;0783-2478</t>
+  </si>
+  <si>
+    <t>2101606-9</t>
+  </si>
+  <si>
+    <t>1.1985 - 10.1999/2000(2000)</t>
+  </si>
+  <si>
+    <t>89887-9</t>
+  </si>
+  <si>
+    <t>Bulletin of British Byzantine studies</t>
+  </si>
+  <si>
+    <t>Committee</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>0265-1629</t>
+  </si>
+  <si>
+    <t>1.1975 -</t>
+  </si>
+  <si>
+    <t>503457-7</t>
+  </si>
+  <si>
+    <t>Münchener Beiträge zur Papyrusforschung und antiken Rechtsgeschichte</t>
+  </si>
+  <si>
+    <t>Beck</t>
+  </si>
+  <si>
+    <t>München</t>
+  </si>
+  <si>
+    <t>0936-3718</t>
+  </si>
+  <si>
+    <t>730;920;930;340</t>
+  </si>
+  <si>
+    <t>6,11;6,12;6,15</t>
+  </si>
+  <si>
+    <t>503449-8</t>
+  </si>
+  <si>
+    <t>H. 4.1922 - 35.1945; 36.1952 - 69.1976; 71.1977 -</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>91279-7</t>
+  </si>
+  <si>
+    <t>ra;ee;b</t>
+  </si>
+  <si>
+    <t>Varia</t>
+  </si>
+  <si>
+    <t>Habelt</t>
+  </si>
+  <si>
+    <t>Bonn</t>
+  </si>
+  <si>
+    <t>ger;eng</t>
+  </si>
+  <si>
+    <t>1.1984 - 7.2000; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>1146395-8</t>
+  </si>
+  <si>
+    <t>Studies in ancient art and civilization</t>
+  </si>
+  <si>
+    <t>Inst. Archeologii Uniwersytetu Jagiellońskiego</t>
+  </si>
+  <si>
+    <t>Kraków</t>
+  </si>
+  <si>
+    <t>pol</t>
+  </si>
+  <si>
+    <t>0083-4300</t>
+  </si>
+  <si>
+    <t>6,21;6,12;6,15;7,41</t>
+  </si>
+  <si>
+    <t>1.1991 -</t>
+  </si>
+  <si>
+    <t>1153987-2</t>
+  </si>
+  <si>
+    <t>Bulgaria pontica medii aevi</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>1.1979(1981) -</t>
+  </si>
+  <si>
+    <t>Association des Amis du Centre d'Histoire et Civilisation de Byzance</t>
+  </si>
+  <si>
+    <t>0751-0594;0577-1471</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>5.1973 -</t>
+  </si>
+  <si>
+    <t>1a;4;5;7;11;16;20;25;30;385</t>
+  </si>
+  <si>
+    <t>1170904-2</t>
+  </si>
+  <si>
+    <t>Ho eranistēs</t>
+  </si>
+  <si>
+    <t>0425-1660</t>
+  </si>
+  <si>
+    <t>050;870</t>
+  </si>
+  <si>
+    <t>1.1963 -</t>
+  </si>
+  <si>
+    <t>1172021-9</t>
+  </si>
+  <si>
+    <t>Studi di filologia bizantina</t>
+  </si>
+  <si>
+    <t>Università</t>
+  </si>
+  <si>
+    <t>Catania</t>
+  </si>
+  <si>
+    <t>1.1979 - 4.1988[?]</t>
+  </si>
+  <si>
+    <t>1172280-0</t>
+  </si>
+  <si>
+    <t>Palimpsēston</t>
+  </si>
+  <si>
+    <t>Hērakleio</t>
+  </si>
+  <si>
+    <t>1108-2429</t>
+  </si>
+  <si>
+    <t>1.1985 - 9/10.1989/90; 2.Per. 11.1991 -</t>
+  </si>
+  <si>
+    <t>913872-9</t>
+  </si>
+  <si>
+    <t>Byzantinai meletai</t>
+  </si>
+  <si>
+    <t>Nezerites;Nezeritēs</t>
+  </si>
+  <si>
+    <t>1.1988 - 7.1996[?]</t>
+  </si>
+  <si>
+    <t>919703-5</t>
+  </si>
+  <si>
+    <t>Godišnik na Sofijskija Universitet Sv. Kliment Ochridski</t>
+  </si>
+  <si>
+    <t>Sofija</t>
+  </si>
+  <si>
+    <t>bul;fre</t>
+  </si>
+  <si>
+    <t>0861-6353;1311-784X</t>
+  </si>
+  <si>
+    <t>870;890</t>
+  </si>
+  <si>
+    <t>6,15;7,39</t>
+  </si>
+  <si>
+    <t>Centăr za Slavjano-Vizantijski Proučvanija Ivan Dujčev = Centre de  Recherches Slavo-Byzantines Ivan Dujčev</t>
+  </si>
+  <si>
+    <t>1.1987(1990); 2=82.1988(1991) -</t>
+  </si>
+  <si>
+    <t>1a;20</t>
+  </si>
+  <si>
+    <t>189076-1</t>
+  </si>
+  <si>
+    <t>Byzantine studies</t>
+  </si>
+  <si>
+    <t>Byzantine Studies Press</t>
+  </si>
+  <si>
+    <t>Shepherdstown, W. Va.</t>
+  </si>
+  <si>
+    <t>0095-4608</t>
+  </si>
+  <si>
+    <t>1.1974 - 13.1986; N.S. 1/2.1996/97(1996) - 4.1999; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>193370-X</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Byzantina mnēmeia</t>
+  </si>
+  <si>
+    <t>Kentron</t>
+  </si>
+  <si>
+    <t>195884-7</t>
+  </si>
+  <si>
+    <t>Byzantine and modern Greek studies</t>
+  </si>
+  <si>
+    <t>Cambridge University Press;Blackwell;Centre;Maney</t>
+  </si>
+  <si>
+    <t>Cambridge;London;Birmingham;Leeds [u.a.]</t>
+  </si>
+  <si>
+    <t>0307-0131</t>
+  </si>
+  <si>
+    <t>4;7;30;Re 13</t>
+  </si>
+  <si>
+    <t>201374-5</t>
+  </si>
+  <si>
+    <t>ra;mg;b</t>
+  </si>
+  <si>
+    <t>Zeitschrift für philosophische Forschung</t>
+  </si>
+  <si>
+    <t>Klostermann;Gryphius-Verl.;Pan-Verl.;Hain</t>
+  </si>
+  <si>
+    <t>Frankfurt, M.;Reutlingen;Wurzach, Württ.;Meisenheim, Glan</t>
+  </si>
+  <si>
+    <t>0044-3301</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>6,12;6,15;5,1;0;1;FID-LING-DE-30;FID-AVL-DE-30</t>
+  </si>
+  <si>
+    <t>1.1946/47 -</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>1a;3/18;4;5;8;11;15;16;17;18;210;19;20;21;23;24;29;30;F 42;31;32;35;43;45;46;83;84;107;109;352;355;384;37;385;Tr 2;386;Lan 1;466;467;517;703;708;715;739;154;824;929;211;Hil 2;Lün 4;Wim 2;Fl 3;Kn 28;Lg 1;136;62;L 322;51;Mz 2;751;Kob 7</t>
+  </si>
+  <si>
+    <t>202352-0</t>
+  </si>
+  <si>
+    <t>Greek, Roman and Byzantine studies</t>
+  </si>
+  <si>
+    <t>Duke University;[Verlag nicht ermittelbar]</t>
+  </si>
+  <si>
+    <t>Durham, NC;San Antonio, Texas;Cambridge, Mass. [u.a.]</t>
+  </si>
+  <si>
+    <t>0017-3916;0884-7304</t>
+  </si>
+  <si>
+    <t>6,12;6,15;6,14;0;6,23</t>
+  </si>
+  <si>
+    <t>[1.]1958,Juli; 1.1958,2(Okt.) - 49.2009</t>
+  </si>
+  <si>
+    <t>208707-8</t>
+  </si>
+  <si>
+    <t>Revue des études byzantines</t>
+  </si>
+  <si>
+    <t>Peeters;De Boccard</t>
+  </si>
+  <si>
+    <t>[Leuven];Bucarest;Paris</t>
+  </si>
+  <si>
+    <t>0766-5598;0771-3347</t>
+  </si>
+  <si>
+    <t>890;230</t>
+  </si>
+  <si>
+    <t>208708-X</t>
+  </si>
+  <si>
+    <t>4.1946 -</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1;5;7;15;16;18;19;20;21;24;25;30;F 42;61;384;385;Kn 28</t>
+  </si>
+  <si>
+    <t>Etudes byzantines</t>
+  </si>
+  <si>
+    <t>Inst.</t>
+  </si>
+  <si>
+    <t>Bucarest</t>
+  </si>
+  <si>
+    <t>0258-2880</t>
+  </si>
+  <si>
+    <t>302592-5</t>
+  </si>
+  <si>
+    <t>1.1943(1944) - 3.1945(1946)</t>
+  </si>
+  <si>
+    <t>215400-6</t>
+  </si>
+  <si>
+    <t>Byzantinoslavica</t>
+  </si>
+  <si>
+    <t>Euroslavica</t>
+  </si>
+  <si>
+    <t>v Praze</t>
+  </si>
+  <si>
+    <t>0007-7712</t>
+  </si>
+  <si>
+    <t>FID-NAHOST-DE-3;1;9,10;6,15;6,23</t>
+  </si>
+  <si>
+    <t>1.1929 - 60.1999; 61.2003 -</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>1a;3/10;9;15;19;20;25;385;F 36</t>
-  </si>
-  <si>
-    <t>5800-2</t>
-  </si>
-  <si>
-    <t>Byzantinische Zeitschrift</t>
-  </si>
-  <si>
-    <t>de Gruyter</t>
-  </si>
-  <si>
-    <t>Berlin;New York, NY</t>
-  </si>
-  <si>
-    <t>0007-7704</t>
-  </si>
-  <si>
-    <t>870;880;930</t>
-  </si>
-  <si>
-    <t>FID-NAHOST-DE-3;1;6,15;6,23;0</t>
-  </si>
-  <si>
-    <t>1211389-X</t>
-  </si>
-  <si>
-    <t>1.1892 - 22.1913; 23.1914/19(1920) - 42.1943/49; 43.1950 -</t>
-  </si>
-  <si>
-    <t>3;18;19;20;28;F 42;46;109;361;384;385;Tr 2;700;Mch 1;Kn 28;F 36</t>
-  </si>
-  <si>
-    <t>759754-X</t>
-  </si>
-  <si>
-    <t>Byzantion Nea Hellás</t>
-  </si>
-  <si>
-    <t>Univ.</t>
-  </si>
-  <si>
-    <t>Casilla, Santiago</t>
-  </si>
-  <si>
-    <t>0716-2138</t>
-  </si>
-  <si>
-    <t>6,15;1;6,23</t>
-  </si>
-  <si>
-    <t>1.1970 -</t>
-  </si>
-  <si>
-    <t>6294-7</t>
-  </si>
-  <si>
-    <t>Corso di Cultura sull'Arte Ravennate e Bizantina</t>
-  </si>
-  <si>
-    <t>Ed. del Girasole</t>
-  </si>
-  <si>
-    <t>Ravenna</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>6,15;9,10</t>
-  </si>
-  <si>
-    <t>342371-2</t>
-  </si>
-  <si>
-    <t>[2.]1956 - [6.]1959; 7.1960 - 36.1989</t>
-  </si>
-  <si>
-    <t>7459-7</t>
-  </si>
-  <si>
-    <t>Zbornik radova Vizantološkog Instituta</t>
-  </si>
-  <si>
-    <t>Naučno Delo</t>
-  </si>
-  <si>
-    <t>Beograd</t>
-  </si>
-  <si>
-    <t>srp;fre</t>
-  </si>
-  <si>
-    <t>0584-9888</t>
-  </si>
-  <si>
-    <t>1.1952 -</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4;20</t>
-  </si>
-  <si>
-    <t>8141-3</t>
-  </si>
-  <si>
-    <t>Etudes byzantines et post-byzantines</t>
-  </si>
-  <si>
-    <t>Ed. Trinita</t>
-  </si>
-  <si>
-    <t>Iaşi</t>
-  </si>
-  <si>
-    <t>0259-0913</t>
-  </si>
-  <si>
-    <t>6,15;6,23</t>
-  </si>
-  <si>
-    <t>1.1979-7 (2016) ; Nouvelle série, tome 1- = 8 (2019)-</t>
-  </si>
-  <si>
-    <t>1a;19</t>
-  </si>
-  <si>
-    <t>412478-9</t>
-  </si>
-  <si>
-    <t>Krētika chronika</t>
-  </si>
-  <si>
-    <t>Hērakleion</t>
-  </si>
-  <si>
-    <t>gre</t>
-  </si>
-  <si>
-    <t>0454-5206</t>
-  </si>
-  <si>
-    <t>910;940</t>
-  </si>
-  <si>
-    <t>6,12;6,14;6,15</t>
-  </si>
-  <si>
-    <t>1.1947 - 20.1966; 2.Per. 21.1969 - 25.1973; 3.Per. 26.1986 -</t>
-  </si>
-  <si>
-    <t>413429-1</t>
-  </si>
-  <si>
-    <t>ra;d</t>
-  </si>
-  <si>
-    <t>Corpus fontium historiae Byzantinae</t>
-  </si>
-  <si>
-    <t>de @Gruyter;Dumbarton Oaks Center for Byzantine Studies</t>
-  </si>
-  <si>
-    <t>Berolini;Bostoniae;Washington, D.C.</t>
-  </si>
-  <si>
-    <t>eng;grc</t>
-  </si>
-  <si>
-    <t>0589-8048</t>
-  </si>
-  <si>
-    <t>930;870</t>
-  </si>
-  <si>
-    <t>6,23;6,15</t>
-  </si>
-  <si>
-    <t>1.1967 -</t>
-  </si>
-  <si>
-    <t>414119-2</t>
-  </si>
-  <si>
-    <t>Makedonika &lt;Thessalonikē&gt;</t>
-  </si>
-  <si>
-    <t>Thessalonikē</t>
-  </si>
-  <si>
-    <t>0076-289X</t>
-  </si>
-  <si>
-    <t>9,10;6,15;6,16</t>
-  </si>
-  <si>
-    <t>1.1940 -</t>
-  </si>
-  <si>
-    <t>1a;16</t>
-  </si>
-  <si>
-    <t>27575-X</t>
-  </si>
-  <si>
-    <t>Peloponnēsiaka</t>
-  </si>
-  <si>
-    <t>910;940;914.3;943</t>
-  </si>
-  <si>
-    <t>Parartēma</t>
-  </si>
-  <si>
-    <t>1.1974 -</t>
-  </si>
-  <si>
-    <t>420491-8</t>
-  </si>
-  <si>
-    <t>rb;d</t>
-  </si>
-  <si>
-    <t>Byzantina keimena kai meletai</t>
-  </si>
-  <si>
-    <t>Kentro Byzantinōn Ereunōn</t>
-  </si>
-  <si>
-    <t>grc;gre;eng</t>
-  </si>
-  <si>
-    <t>1106-6180</t>
-  </si>
-  <si>
-    <t>880</t>
-  </si>
-  <si>
-    <t>1113500-1</t>
-  </si>
-  <si>
-    <t>Epetēris Hidrymatos Neoellēnikōn Spudōn</t>
-  </si>
-  <si>
-    <t>1.1979/80 - 13.2005/06[?]</t>
-  </si>
-  <si>
-    <t>41714-2</t>
-  </si>
-  <si>
-    <t>Bulletin d'information et de coordination</t>
-  </si>
-  <si>
-    <t>Athènes</t>
-  </si>
-  <si>
-    <t>0571-5857</t>
-  </si>
-  <si>
-    <t>880;940</t>
-  </si>
-  <si>
-    <t>1.1964 - 21.2000/01; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>802568-X</t>
-  </si>
-  <si>
-    <t>Vedute sull'Egitto antico</t>
-  </si>
-  <si>
-    <t>Giappichelli</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>6,11;6,12;6,15;6,21</t>
-  </si>
-  <si>
-    <t>1.1974/79(1981) - 6.1995/96(1997)[?]</t>
-  </si>
-  <si>
-    <t>803003-0</t>
-  </si>
-  <si>
-    <t>Horos</t>
-  </si>
-  <si>
-    <t>Typ. Keimena</t>
-  </si>
-  <si>
-    <t>1105-2163</t>
-  </si>
-  <si>
-    <t>930</t>
-  </si>
-  <si>
-    <t>6,14;6,15</t>
-  </si>
-  <si>
-    <t>1.1983 - 14/16.2000/03(2003); 17/21.2004/09(2010) -</t>
-  </si>
-  <si>
-    <t>16;29</t>
-  </si>
-  <si>
-    <t>429988-7</t>
-  </si>
-  <si>
-    <t>Byzantina</t>
-  </si>
-  <si>
-    <t>Gävle</t>
-  </si>
-  <si>
-    <t>1.1972(1973) - 3/4.1974/75(1977)[?]</t>
-  </si>
-  <si>
-    <t>806187-7</t>
-  </si>
-  <si>
-    <t>Byzantium and the north</t>
-  </si>
-  <si>
-    <t>Seura</t>
-  </si>
-  <si>
-    <t>Helsinki</t>
-  </si>
-  <si>
-    <t>0356-1879;0783-2478</t>
-  </si>
-  <si>
-    <t>2101606-9</t>
-  </si>
-  <si>
-    <t>1.1985 - 10.1999/2000(2000)</t>
-  </si>
-  <si>
-    <t>89887-9</t>
-  </si>
-  <si>
-    <t>Bulletin of British Byzantine studies</t>
-  </si>
-  <si>
-    <t>Committee</t>
-  </si>
-  <si>
-    <t>Sheffield</t>
-  </si>
-  <si>
-    <t>eng</t>
-  </si>
-  <si>
-    <t>0265-1629</t>
-  </si>
-  <si>
-    <t>1.1975 -</t>
-  </si>
-  <si>
-    <t>503457-7</t>
-  </si>
-  <si>
-    <t>Münchener Beiträge zur Papyrusforschung und antiken Rechtsgeschichte</t>
-  </si>
-  <si>
-    <t>Beck</t>
-  </si>
-  <si>
-    <t>München</t>
-  </si>
-  <si>
-    <t>0936-3718</t>
-  </si>
-  <si>
-    <t>730;920;930;340</t>
-  </si>
-  <si>
-    <t>6,11;6,12;6,15</t>
-  </si>
-  <si>
-    <t>503449-8</t>
-  </si>
-  <si>
-    <t>H. 4.1922 - 35.1945; 36.1952 - 69.1976; 71.1977 -</t>
-  </si>
-  <si>
-    <t>91279-7</t>
-  </si>
-  <si>
-    <t>ra;ee;b</t>
-  </si>
-  <si>
-    <t>Varia</t>
-  </si>
-  <si>
-    <t>Habelt</t>
-  </si>
-  <si>
-    <t>Bonn</t>
-  </si>
-  <si>
-    <t>ger;eng</t>
-  </si>
-  <si>
-    <t>1.1984 - 7.2000; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>1146395-8</t>
-  </si>
-  <si>
-    <t>Studies in ancient art and civilization</t>
-  </si>
-  <si>
-    <t>Inst. Archeologii Uniwersytetu Jagiellońskiego</t>
-  </si>
-  <si>
-    <t>Kraków</t>
-  </si>
-  <si>
-    <t>pol</t>
-  </si>
-  <si>
-    <t>0083-4300</t>
-  </si>
-  <si>
-    <t>6,21;6,12;6,15;7,41</t>
-  </si>
-  <si>
-    <t>1.1991 -</t>
-  </si>
-  <si>
-    <t>1153987-2</t>
-  </si>
-  <si>
-    <t>Bulgaria pontica medii aevi</t>
-  </si>
-  <si>
-    <t>Sofia</t>
-  </si>
-  <si>
-    <t>1.1979(1981) -</t>
-  </si>
-  <si>
-    <t>Association des Amis du Centre d'Histoire et Civilisation de Byzance</t>
-  </si>
-  <si>
-    <t>0751-0594;0577-1471</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>5.1973 -</t>
-  </si>
-  <si>
-    <t>1a;4;5;11;16;20;25;30;385</t>
-  </si>
-  <si>
-    <t>1170904-2</t>
-  </si>
-  <si>
-    <t>Ho eranistēs</t>
-  </si>
-  <si>
-    <t>0425-1660</t>
-  </si>
-  <si>
-    <t>050;870</t>
-  </si>
-  <si>
-    <t>1.1963 -</t>
-  </si>
-  <si>
-    <t>1172021-9</t>
-  </si>
-  <si>
-    <t>Studi di filologia bizantina</t>
-  </si>
-  <si>
-    <t>Università</t>
-  </si>
-  <si>
-    <t>Catania</t>
-  </si>
-  <si>
-    <t>1.1979 - 4.1988[?]</t>
-  </si>
-  <si>
-    <t>1172280-0</t>
-  </si>
-  <si>
-    <t>Palimpsēston</t>
-  </si>
-  <si>
-    <t>Hērakleio</t>
-  </si>
-  <si>
-    <t>1108-2429</t>
-  </si>
-  <si>
-    <t>1.1985 - 9/10.1989/90; 2.Per. 11.1991 -</t>
-  </si>
-  <si>
-    <t>913872-9</t>
-  </si>
-  <si>
-    <t>Byzantinai meletai</t>
-  </si>
-  <si>
-    <t>Nezerites;Nezeritēs</t>
-  </si>
-  <si>
-    <t>1.1988 - 7.1996[?]</t>
-  </si>
-  <si>
-    <t>919703-5</t>
-  </si>
-  <si>
-    <t>Godišnik na Sofijskija Universitet Sv. Kliment Ochridski</t>
-  </si>
-  <si>
-    <t>Sofija</t>
-  </si>
-  <si>
-    <t>bul;fre</t>
-  </si>
-  <si>
-    <t>0861-6353;1311-784X</t>
-  </si>
-  <si>
-    <t>870;890</t>
-  </si>
-  <si>
-    <t>6,15;7,39</t>
-  </si>
-  <si>
-    <t>Centăr za Slavjano-Vizantijski Proučvanija Ivan Dujčev = Centre de  Recherches Slavo-Byzantines Ivan Dujčev</t>
-  </si>
-  <si>
-    <t>1.1987(1990); 2=82.1988(1991) -</t>
-  </si>
-  <si>
-    <t>1a;20</t>
-  </si>
-  <si>
-    <t>189076-1</t>
-  </si>
-  <si>
-    <t>Byzantine studies</t>
-  </si>
-  <si>
-    <t>Byzantine Studies Press</t>
-  </si>
-  <si>
-    <t>Shepherdstown, W. Va.</t>
-  </si>
-  <si>
-    <t>0095-4608</t>
-  </si>
-  <si>
-    <t>1.1974 - 13.1986; N.S. 1/2.1996/97(1996) - 4.1999; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>193370-X</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>Byzantina mnēmeia</t>
-  </si>
-  <si>
-    <t>Kentron</t>
-  </si>
-  <si>
-    <t>195884-7</t>
-  </si>
-  <si>
-    <t>Byzantine and modern Greek studies</t>
-  </si>
-  <si>
-    <t>Cambridge University Press;Blackwell;Centre;Maney</t>
-  </si>
-  <si>
-    <t>Cambridge;London;Birmingham;Leeds [u.a.]</t>
-  </si>
-  <si>
-    <t>0307-0131</t>
-  </si>
-  <si>
-    <t>4;30;Re 13</t>
-  </si>
-  <si>
-    <t>201374-5</t>
-  </si>
-  <si>
-    <t>ra;mg;b</t>
-  </si>
-  <si>
-    <t>Zeitschrift für philosophische Forschung</t>
-  </si>
-  <si>
-    <t>Klostermann;Gryphius-Verl.;Pan-Verl.;Hain</t>
-  </si>
-  <si>
-    <t>Frankfurt, M.;Reutlingen;Wurzach, Württ.;Meisenheim, Glan</t>
-  </si>
-  <si>
-    <t>0044-3301</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>6,12;6,15;5,1;0;1;FID-LING-DE-30;FID-AVL-DE-30</t>
-  </si>
-  <si>
-    <t>1.1946/47 -</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>1a;3/18;4;5;11;15;16;17;18;210;19;20;21;24;29;30;F 42;31;32;43;46;83;107;109;352;355;384;37;385;Tr 2;386;Lan 1;466;467;517;703;708;715;739;154;824;929;211;Lün 4;Kn 28;Lg 1;136;62;L 322;51;Mz 2;751;Kob 7</t>
-  </si>
-  <si>
-    <t>202352-0</t>
-  </si>
-  <si>
-    <t>Greek, Roman and Byzantine studies</t>
-  </si>
-  <si>
-    <t>Duke University;[Verlag nicht ermittelbar]</t>
-  </si>
-  <si>
-    <t>Durham, NC;San Antonio, Texas;Cambridge, Mass. [u.a.]</t>
-  </si>
-  <si>
-    <t>0017-3916;0884-7304</t>
-  </si>
-  <si>
-    <t>6,12;6,15;6,14;0;6,23</t>
-  </si>
-  <si>
-    <t>[1.]1958,Juli; 1.1958,2(Okt.) - 49.2009</t>
-  </si>
-  <si>
-    <t>208707-8</t>
-  </si>
-  <si>
-    <t>Revue des études byzantines</t>
-  </si>
-  <si>
-    <t>Peeters;De Boccard</t>
-  </si>
-  <si>
-    <t>[Leuven];Bucarest;Paris</t>
-  </si>
-  <si>
-    <t>0766-5598;0771-3347</t>
-  </si>
-  <si>
-    <t>890;230</t>
-  </si>
-  <si>
-    <t>208708-X</t>
-  </si>
-  <si>
-    <t>4.1946 -</t>
-  </si>
-  <si>
-    <t>1;5;15;16;18;19;20;21;24;25;30;F 42;61;384;385;Kn 28</t>
-  </si>
-  <si>
-    <t>Etudes byzantines</t>
-  </si>
-  <si>
-    <t>Inst.</t>
-  </si>
-  <si>
-    <t>Bucarest</t>
-  </si>
-  <si>
-    <t>0258-2880</t>
-  </si>
-  <si>
-    <t>302592-5</t>
-  </si>
-  <si>
-    <t>1.1943(1944) - 3.1945(1946)</t>
-  </si>
-  <si>
-    <t>215400-6</t>
-  </si>
-  <si>
-    <t>Byzantinoslavica</t>
-  </si>
-  <si>
-    <t>Euroslavica</t>
-  </si>
-  <si>
-    <t>v Praze</t>
-  </si>
-  <si>
-    <t>0007-7712</t>
-  </si>
-  <si>
-    <t>FID-NAHOST-DE-3;1;9,10;6,15;6,23</t>
-  </si>
-  <si>
-    <t>1.1929 - 60.1999; 61.2003 -</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>1a;5;14;16;19;F 42;61;739</t>
+    <t>1a;5;7;14;16;19;F 42;61;739</t>
   </si>
   <si>
     <t>215646-5</t>
@@ -3271,15 +3280,15 @@
         <v>32</v>
       </c>
       <c r="X11" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -3288,13 +3297,13 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
         <v>32</v>
@@ -3303,13 +3312,13 @@
         <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
         <v>56</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
         <v>32</v>
@@ -3330,7 +3339,7 @@
         <v>32</v>
       </c>
       <c r="R12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="S12" t="s">
         <v>32</v>
@@ -3356,7 +3365,7 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -3365,13 +3374,13 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
         <v>32</v>
@@ -3383,10 +3392,10 @@
         <v>32</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
         <v>32</v>
@@ -3404,10 +3413,10 @@
         <v>32</v>
       </c>
       <c r="Q13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="S13" t="s">
         <v>32</v>
@@ -3433,7 +3442,7 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -3442,28 +3451,28 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H14" t="s">
         <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J14" t="s">
         <v>56</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s">
         <v>32</v>
@@ -3484,7 +3493,7 @@
         <v>32</v>
       </c>
       <c r="R14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S14" t="s">
         <v>32</v>
@@ -3502,7 +3511,7 @@
         <v>32</v>
       </c>
       <c r="X14" t="s">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="Y14" t="s">
         <v>146</v>
@@ -3579,15 +3588,15 @@
         <v>32</v>
       </c>
       <c r="X15" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="Y15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -3596,28 +3605,28 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E16" t="s">
         <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H16" t="s">
         <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L16" t="s">
         <v>32</v>
@@ -3638,7 +3647,7 @@
         <v>32</v>
       </c>
       <c r="R16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S16" t="s">
         <v>32</v>
@@ -3664,37 +3673,37 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H17" t="s">
         <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L17" t="s">
         <v>32</v>
@@ -3715,7 +3724,7 @@
         <v>32</v>
       </c>
       <c r="R17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="S17" t="s">
         <v>32</v>
@@ -3741,7 +3750,7 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -3750,28 +3759,28 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E18" t="s">
         <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H18" t="s">
         <v>32</v>
       </c>
       <c r="I18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J18" t="s">
         <v>45</v>
       </c>
       <c r="K18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s">
         <v>32</v>
@@ -3792,7 +3801,7 @@
         <v>32</v>
       </c>
       <c r="R18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S18" t="s">
         <v>32</v>
@@ -3810,15 +3819,15 @@
         <v>32</v>
       </c>
       <c r="X18" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="Y18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -3827,7 +3836,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E19" t="s">
         <v>63</v>
@@ -3845,13 +3854,13 @@
         <v>32</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K19" t="s">
         <v>34</v>
       </c>
       <c r="L19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M19" t="s">
         <v>32</v>
@@ -3869,7 +3878,7 @@
         <v>32</v>
       </c>
       <c r="R19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="S19" t="s">
         <v>32</v>
@@ -3895,34 +3904,34 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H20" t="s">
         <v>32</v>
       </c>
       <c r="I20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K20" t="s">
         <v>34</v>
@@ -3946,7 +3955,7 @@
         <v>32</v>
       </c>
       <c r="R20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="S20" t="s">
         <v>32</v>
@@ -3972,7 +3981,7 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -3981,7 +3990,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E21" t="s">
         <v>63</v>
@@ -3990,7 +3999,7 @@
         <v>64</v>
       </c>
       <c r="G21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H21" t="s">
         <v>32</v>
@@ -4023,7 +4032,7 @@
         <v>32</v>
       </c>
       <c r="R21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S21" t="s">
         <v>32</v>
@@ -4049,7 +4058,7 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -4058,13 +4067,13 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E22" t="s">
         <v>63</v>
       </c>
       <c r="F22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G22" t="s">
         <v>54</v>
@@ -4073,10 +4082,10 @@
         <v>32</v>
       </c>
       <c r="I22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K22" t="s">
         <v>152</v>
@@ -4100,7 +4109,7 @@
         <v>32</v>
       </c>
       <c r="R22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="S22" t="s">
         <v>32</v>
@@ -4126,7 +4135,7 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -4135,13 +4144,13 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G23" t="s">
         <v>32</v>
@@ -4156,7 +4165,7 @@
         <v>45</v>
       </c>
       <c r="K23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s">
         <v>32</v>
@@ -4177,7 +4186,7 @@
         <v>32</v>
       </c>
       <c r="R23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="S23" t="s">
         <v>32</v>
@@ -4203,7 +4212,7 @@
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -4212,10 +4221,10 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F24" t="s">
         <v>28</v>
@@ -4227,13 +4236,13 @@
         <v>32</v>
       </c>
       <c r="I24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L24" t="s">
         <v>32</v>
@@ -4254,7 +4263,7 @@
         <v>32</v>
       </c>
       <c r="R24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S24" t="s">
         <v>32</v>
@@ -4272,15 +4281,15 @@
         <v>32</v>
       </c>
       <c r="X24" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="Y24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -4289,13 +4298,13 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E25" t="s">
         <v>63</v>
       </c>
       <c r="F25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G25" t="s">
         <v>32</v>
@@ -4331,7 +4340,7 @@
         <v>32</v>
       </c>
       <c r="R25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="S25" t="s">
         <v>32</v>
@@ -4357,7 +4366,7 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -4366,13 +4375,13 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G26" t="s">
         <v>32</v>
@@ -4381,13 +4390,13 @@
         <v>32</v>
       </c>
       <c r="I26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J26" t="s">
         <v>56</v>
       </c>
       <c r="K26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L26" t="s">
         <v>32</v>
@@ -4402,13 +4411,13 @@
         <v>32</v>
       </c>
       <c r="P26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q26" t="s">
         <v>32</v>
       </c>
       <c r="R26" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S26" t="s">
         <v>32</v>
@@ -4434,7 +4443,7 @@
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -4443,22 +4452,22 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H27" t="s">
         <v>32</v>
       </c>
       <c r="I27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J27" t="s">
         <v>56</v>
@@ -4485,7 +4494,7 @@
         <v>32</v>
       </c>
       <c r="R27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S27" t="s">
         <v>32</v>
@@ -4511,22 +4520,22 @@
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G28" t="s">
         <v>74</v>
@@ -4535,13 +4544,13 @@
         <v>32</v>
       </c>
       <c r="I28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K28" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L28" t="s">
         <v>32</v>
@@ -4559,10 +4568,10 @@
         <v>32</v>
       </c>
       <c r="Q28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="R28" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="S28" t="s">
         <v>32</v>
@@ -4580,33 +4589,33 @@
         <v>32</v>
       </c>
       <c r="X28" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="Y28" t="s">
-        <v>32</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D29" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E29" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F29" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G29" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H29" t="s">
         <v>32</v>
@@ -4639,7 +4648,7 @@
         <v>32</v>
       </c>
       <c r="R29" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="S29" t="s">
         <v>32</v>
@@ -4665,7 +4674,7 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -4674,28 +4683,28 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E30" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F30" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G30" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H30" t="s">
         <v>32</v>
       </c>
       <c r="I30" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K30" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L30" t="s">
         <v>32</v>
@@ -4716,7 +4725,7 @@
         <v>32</v>
       </c>
       <c r="R30" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="S30" t="s">
         <v>32</v>
@@ -4742,7 +4751,7 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -4751,13 +4760,13 @@
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E31" t="s">
         <v>63</v>
       </c>
       <c r="F31" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G31" t="s">
         <v>32</v>
@@ -4793,7 +4802,7 @@
         <v>32</v>
       </c>
       <c r="R31" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="S31" t="s">
         <v>32</v>
@@ -4831,7 +4840,7 @@
         <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F32" t="s">
         <v>98</v>
@@ -4843,10 +4852,10 @@
         <v>32</v>
       </c>
       <c r="I32" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J32" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K32" t="s">
         <v>34</v>
@@ -4870,7 +4879,7 @@
         <v>95</v>
       </c>
       <c r="R32" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="S32" t="s">
         <v>32</v>
@@ -4891,12 +4900,12 @@
         <v>111</v>
       </c>
       <c r="Y32" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
@@ -4905,7 +4914,7 @@
         <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E33" t="s">
         <v>63</v>
@@ -4914,16 +4923,16 @@
         <v>28</v>
       </c>
       <c r="G33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H33" t="s">
         <v>32</v>
       </c>
       <c r="I33" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J33" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K33" t="s">
         <v>34</v>
@@ -4947,7 +4956,7 @@
         <v>32</v>
       </c>
       <c r="R33" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="S33" t="s">
         <v>32</v>
@@ -4973,7 +4982,7 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
@@ -4982,13 +4991,13 @@
         <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E34" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F34" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G34" t="s">
         <v>90</v>
@@ -5024,7 +5033,7 @@
         <v>32</v>
       </c>
       <c r="R34" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="S34" t="s">
         <v>32</v>
@@ -5050,7 +5059,7 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -5059,22 +5068,22 @@
         <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E35" t="s">
         <v>63</v>
       </c>
       <c r="F35" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H35" t="s">
         <v>32</v>
       </c>
       <c r="I35" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J35" t="s">
         <v>56</v>
@@ -5101,7 +5110,7 @@
         <v>32</v>
       </c>
       <c r="R35" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="S35" t="s">
         <v>32</v>
@@ -5127,7 +5136,7 @@
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
@@ -5136,16 +5145,16 @@
         <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E36" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F36" t="s">
         <v>28</v>
       </c>
       <c r="G36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H36" t="s">
         <v>32</v>
@@ -5178,7 +5187,7 @@
         <v>32</v>
       </c>
       <c r="R36" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S36" t="s">
         <v>32</v>
@@ -5204,7 +5213,7 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
@@ -5213,31 +5222,31 @@
         <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E37" t="s">
         <v>63</v>
       </c>
       <c r="F37" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G37" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H37" t="s">
         <v>32</v>
       </c>
       <c r="I37" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J37" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K37" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L37" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M37" t="s">
         <v>32</v>
@@ -5255,7 +5264,7 @@
         <v>32</v>
       </c>
       <c r="R37" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="S37" t="s">
         <v>32</v>
@@ -5273,15 +5282,15 @@
         <v>32</v>
       </c>
       <c r="X37" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="Y37" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
@@ -5290,22 +5299,22 @@
         <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E38" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F38" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G38" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H38" t="s">
         <v>32</v>
       </c>
       <c r="I38" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J38" t="s">
         <v>56</v>
@@ -5332,7 +5341,7 @@
         <v>32</v>
       </c>
       <c r="R38" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="S38" t="s">
         <v>32</v>
@@ -5358,25 +5367,25 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D39" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E39" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G39" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H39" t="s">
         <v>32</v>
@@ -5409,7 +5418,7 @@
         <v>32</v>
       </c>
       <c r="R39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="S39" t="s">
         <v>32</v>
@@ -5435,7 +5444,7 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
@@ -5444,22 +5453,22 @@
         <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E40" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F40" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G40" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H40" t="s">
         <v>32</v>
       </c>
       <c r="I40" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="J40" t="s">
         <v>56</v>
@@ -5486,7 +5495,7 @@
         <v>32</v>
       </c>
       <c r="R40" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S40" t="s">
         <v>32</v>
@@ -5504,30 +5513,30 @@
         <v>32</v>
       </c>
       <c r="X40" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D41" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E41" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F41" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G41" t="s">
         <v>74</v>
@@ -5536,13 +5545,13 @@
         <v>32</v>
       </c>
       <c r="I41" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J41" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K41" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L41" t="s">
         <v>32</v>
@@ -5563,7 +5572,7 @@
         <v>32</v>
       </c>
       <c r="R41" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="S41" t="s">
         <v>32</v>
@@ -5581,15 +5590,15 @@
         <v>32</v>
       </c>
       <c r="X41" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Y41" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
@@ -5598,28 +5607,28 @@
         <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E42" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F42" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G42" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H42" t="s">
         <v>32</v>
       </c>
       <c r="I42" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K42" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L42" t="s">
         <v>32</v>
@@ -5640,7 +5649,7 @@
         <v>32</v>
       </c>
       <c r="R42" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="S42" t="s">
         <v>32</v>
@@ -5666,7 +5675,7 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -5675,13 +5684,13 @@
         <v>27</v>
       </c>
       <c r="D43" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E43" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F43" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G43" t="s">
         <v>54</v>
@@ -5690,10 +5699,10 @@
         <v>32</v>
       </c>
       <c r="I43" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="J43" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K43" t="s">
         <v>152</v>
@@ -5714,10 +5723,10 @@
         <v>32</v>
       </c>
       <c r="Q43" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="R43" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="S43" t="s">
         <v>32</v>
@@ -5735,15 +5744,15 @@
         <v>32</v>
       </c>
       <c r="X43" t="s">
-        <v>59</v>
+        <v>339</v>
       </c>
       <c r="Y43" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
@@ -5752,13 +5761,13 @@
         <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E44" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F44" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -5767,13 +5776,13 @@
         <v>32</v>
       </c>
       <c r="I44" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="J44" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L44" t="s">
         <v>32</v>
@@ -5788,13 +5797,13 @@
         <v>32</v>
       </c>
       <c r="P44" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q44" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="R44" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="S44" t="s">
         <v>32</v>
@@ -5820,7 +5829,7 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
@@ -5829,13 +5838,13 @@
         <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E45" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F45" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -5844,13 +5853,13 @@
         <v>32</v>
       </c>
       <c r="I45" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="J45" t="s">
         <v>56</v>
       </c>
       <c r="K45" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L45" t="s">
         <v>32</v>
@@ -5871,7 +5880,7 @@
         <v>32</v>
       </c>
       <c r="R45" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="S45" t="s">
         <v>32</v>
@@ -5889,15 +5898,15 @@
         <v>32</v>
       </c>
       <c r="X45" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Y45" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
@@ -5906,25 +5915,25 @@
         <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E46" t="s">
         <v>63</v>
       </c>
       <c r="F46" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H46" t="s">
         <v>32</v>
       </c>
       <c r="I46" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="J46" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="K46" t="s">
         <v>34</v>
@@ -5948,7 +5957,7 @@
         <v>32</v>
       </c>
       <c r="R46" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="S46" t="s">
         <v>32</v>
@@ -5974,7 +5983,7 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
@@ -5983,13 +5992,13 @@
         <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E47" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F47" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G47" t="s">
         <v>74</v>
@@ -5998,13 +6007,13 @@
         <v>32</v>
       </c>
       <c r="I47" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="J47" t="s">
         <v>45</v>
       </c>
       <c r="K47" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L47" t="s">
         <v>32</v>
@@ -6025,7 +6034,7 @@
         <v>32</v>
       </c>
       <c r="R47" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="S47" t="s">
         <v>32</v>
@@ -6051,7 +6060,7 @@
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -6060,10 +6069,10 @@
         <v>27</v>
       </c>
       <c r="D48" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E48" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F48" t="s">
         <v>28</v>
@@ -6075,10 +6084,10 @@
         <v>32</v>
       </c>
       <c r="I48" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="J48" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="K48" t="s">
         <v>34</v>
@@ -6102,7 +6111,7 @@
         <v>32</v>
       </c>
       <c r="R48" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="S48" t="s">
         <v>32</v>
@@ -6128,19 +6137,19 @@
     </row>
     <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D49" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E49" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F49" t="s">
         <v>73</v>
@@ -6152,7 +6161,7 @@
         <v>32</v>
       </c>
       <c r="I49" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="J49" t="s">
         <v>56</v>
@@ -6179,7 +6188,7 @@
         <v>32</v>
       </c>
       <c r="R49" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="S49" t="s">
         <v>32</v>
@@ -6205,7 +6214,7 @@
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -6214,7 +6223,7 @@
         <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E50" t="s">
         <v>63</v>
@@ -6223,19 +6232,19 @@
         <v>28</v>
       </c>
       <c r="G50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H50" t="s">
         <v>32</v>
       </c>
       <c r="I50" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="J50" t="s">
         <v>56</v>
       </c>
       <c r="K50" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="L50" t="s">
         <v>32</v>
@@ -6253,10 +6262,10 @@
         <v>32</v>
       </c>
       <c r="Q50" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="R50" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="S50" t="s">
         <v>32</v>
@@ -6282,7 +6291,7 @@
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
@@ -6291,7 +6300,7 @@
         <v>27</v>
       </c>
       <c r="D51" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E51" t="s">
         <v>63</v>
@@ -6309,7 +6318,7 @@
         <v>32</v>
       </c>
       <c r="J51" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K51" t="s">
         <v>34</v>
@@ -6333,7 +6342,7 @@
         <v>32</v>
       </c>
       <c r="R51" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="S51" t="s">
         <v>32</v>
@@ -6359,7 +6368,7 @@
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
@@ -6368,13 +6377,13 @@
         <v>27</v>
       </c>
       <c r="D52" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E52" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F52" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G52" t="s">
         <v>32</v>
@@ -6404,13 +6413,13 @@
         <v>32</v>
       </c>
       <c r="P52" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q52" t="s">
         <v>32</v>
       </c>
       <c r="R52" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="S52" t="s">
         <v>32</v>
@@ -6436,25 +6445,25 @@
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D53" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E53" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F53" t="s">
         <v>28</v>
       </c>
       <c r="G53" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H53" t="s">
         <v>32</v>
@@ -6466,7 +6475,7 @@
         <v>56</v>
       </c>
       <c r="K53" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L53" t="s">
         <v>32</v>
@@ -6513,7 +6522,7 @@
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B54" t="s">
         <v>26</v>
@@ -6522,13 +6531,13 @@
         <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E54" t="s">
         <v>63</v>
       </c>
       <c r="F54" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G54" t="s">
         <v>32</v>
@@ -6537,7 +6546,7 @@
         <v>32</v>
       </c>
       <c r="I54" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="J54" t="s">
         <v>56</v>
@@ -6564,7 +6573,7 @@
         <v>32</v>
       </c>
       <c r="R54" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="S54" t="s">
         <v>32</v>
@@ -6590,7 +6599,7 @@
     </row>
     <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B55" t="s">
         <v>26</v>
@@ -6599,7 +6608,7 @@
         <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E55" t="s">
         <v>63</v>
@@ -6608,13 +6617,13 @@
         <v>64</v>
       </c>
       <c r="G55" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H55" t="s">
         <v>32</v>
       </c>
       <c r="I55" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="J55" t="s">
         <v>56</v>
@@ -6635,13 +6644,13 @@
         <v>32</v>
       </c>
       <c r="P55" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q55" t="s">
         <v>32</v>
       </c>
       <c r="R55" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="S55" t="s">
         <v>32</v>
@@ -6667,7 +6676,7 @@
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -6676,13 +6685,13 @@
         <v>27</v>
       </c>
       <c r="D56" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E56" t="s">
         <v>63</v>
       </c>
       <c r="F56" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G56" t="s">
         <v>32</v>
@@ -6691,7 +6700,7 @@
         <v>32</v>
       </c>
       <c r="I56" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="J56" t="s">
         <v>56</v>
@@ -6712,13 +6721,13 @@
         <v>32</v>
       </c>
       <c r="P56" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q56" t="s">
         <v>32</v>
       </c>
       <c r="R56" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="S56" t="s">
         <v>32</v>
@@ -6744,7 +6753,7 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
@@ -6753,25 +6762,25 @@
         <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E57" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F57" t="s">
         <v>28</v>
       </c>
       <c r="G57" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H57" t="s">
         <v>32</v>
       </c>
       <c r="I57" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="J57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K57" t="s">
         <v>46</v>
@@ -6795,7 +6804,7 @@
         <v>32</v>
       </c>
       <c r="R57" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="S57" t="s">
         <v>32</v>
@@ -6821,7 +6830,7 @@
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -6830,16 +6839,16 @@
         <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E58" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="F58" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="G58" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H58" t="s">
         <v>32</v>
@@ -6848,7 +6857,7 @@
         <v>32</v>
       </c>
       <c r="J58" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K58" t="s">
         <v>34</v>
@@ -6872,7 +6881,7 @@
         <v>32</v>
       </c>
       <c r="R58" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="S58" t="s">
         <v>32</v>
@@ -6898,7 +6907,7 @@
     </row>
     <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
@@ -6907,13 +6916,13 @@
         <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E59" t="s">
         <v>63</v>
       </c>
       <c r="F59" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G59" t="s">
         <v>32</v>
@@ -6922,13 +6931,13 @@
         <v>32</v>
       </c>
       <c r="I59" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="J59" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K59" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="L59" t="s">
         <v>32</v>
@@ -6949,7 +6958,7 @@
         <v>32</v>
       </c>
       <c r="R59" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="S59" t="s">
         <v>32</v>
@@ -6967,15 +6976,15 @@
         <v>32</v>
       </c>
       <c r="X59" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="Y59" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
@@ -6984,28 +6993,28 @@
         <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E60" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F60" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G60" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="H60" t="s">
         <v>32</v>
       </c>
       <c r="I60" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="J60" t="s">
         <v>56</v>
       </c>
       <c r="K60" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L60" t="s">
         <v>32</v>
@@ -7023,10 +7032,10 @@
         <v>32</v>
       </c>
       <c r="Q60" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="R60" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="S60" t="s">
         <v>32</v>
@@ -7052,7 +7061,7 @@
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -7061,13 +7070,13 @@
         <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E61" t="s">
         <v>63</v>
       </c>
       <c r="F61" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="G61" t="s">
         <v>32</v>
@@ -7079,10 +7088,10 @@
         <v>32</v>
       </c>
       <c r="J61" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="K61" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="L61" t="s">
         <v>32</v>
@@ -7103,7 +7112,7 @@
         <v>32</v>
       </c>
       <c r="R61" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="S61" t="s">
         <v>32</v>
@@ -7124,12 +7133,12 @@
         <v>67</v>
       </c>
       <c r="Y61" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
@@ -7138,25 +7147,25 @@
         <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E62" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F62" t="s">
         <v>28</v>
       </c>
       <c r="G62" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H62" t="s">
         <v>32</v>
       </c>
       <c r="I62" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="J62" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K62" t="s">
         <v>46</v>
@@ -7180,7 +7189,7 @@
         <v>32</v>
       </c>
       <c r="R62" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="S62" t="s">
         <v>32</v>
@@ -7206,7 +7215,7 @@
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -7215,13 +7224,13 @@
         <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E63" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="F63" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="G63" t="s">
         <v>90</v>
@@ -7236,7 +7245,7 @@
         <v>45</v>
       </c>
       <c r="K63" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L63" t="s">
         <v>32</v>
@@ -7254,10 +7263,10 @@
         <v>32</v>
       </c>
       <c r="Q63" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="R63" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="S63" t="s">
         <v>32</v>
@@ -7283,7 +7292,7 @@
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B64" t="s">
         <v>26</v>
@@ -7292,13 +7301,13 @@
         <v>27</v>
       </c>
       <c r="D64" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E64" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F64" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G64" t="s">
         <v>107</v>
@@ -7310,10 +7319,10 @@
         <v>32</v>
       </c>
       <c r="J64" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K64" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="L64" t="s">
         <v>32</v>
@@ -7334,7 +7343,7 @@
         <v>32</v>
       </c>
       <c r="R64" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="S64" t="s">
         <v>32</v>
@@ -7360,7 +7369,7 @@
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
@@ -7369,13 +7378,13 @@
         <v>27</v>
       </c>
       <c r="D65" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="E65" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F65" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="G65" t="s">
         <v>32</v>
@@ -7384,10 +7393,10 @@
         <v>32</v>
       </c>
       <c r="I65" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="J65" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K65" t="s">
         <v>34</v>
@@ -7411,7 +7420,7 @@
         <v>32</v>
       </c>
       <c r="R65" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="S65" t="s">
         <v>32</v>
@@ -7432,27 +7441,27 @@
         <v>48</v>
       </c>
       <c r="Y65" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B66" t="s">
         <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D66" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E66" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F66" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="G66" t="s">
         <v>74</v>
@@ -7461,13 +7470,13 @@
         <v>32</v>
       </c>
       <c r="I66" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="J66" t="s">
         <v>56</v>
       </c>
       <c r="K66" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="L66" t="s">
         <v>32</v>
@@ -7488,7 +7497,7 @@
         <v>32</v>
       </c>
       <c r="R66" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="S66" t="s">
         <v>32</v>
@@ -7514,7 +7523,7 @@
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
@@ -7523,25 +7532,25 @@
         <v>27</v>
       </c>
       <c r="D67" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E67" t="s">
         <v>63</v>
       </c>
       <c r="F67" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="G67" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H67" t="s">
         <v>32</v>
       </c>
       <c r="I67" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="J67" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K67" t="s">
         <v>34</v>
@@ -7565,7 +7574,7 @@
         <v>32</v>
       </c>
       <c r="R67" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="S67" t="s">
         <v>32</v>
@@ -7591,22 +7600,22 @@
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
       </c>
       <c r="C68" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D68" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E68" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F68" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="G68" t="s">
         <v>74</v>
@@ -7618,7 +7627,7 @@
         <v>32</v>
       </c>
       <c r="J68" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="K68" t="s">
         <v>34</v>
@@ -7642,7 +7651,7 @@
         <v>32</v>
       </c>
       <c r="R68" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="S68" t="s">
         <v>32</v>
@@ -7668,22 +7677,22 @@
     </row>
     <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B69" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C69" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D69" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E69" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F69" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="G69" t="s">
         <v>74</v>
@@ -7698,7 +7707,7 @@
         <v>118</v>
       </c>
       <c r="K69" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="L69" t="s">
         <v>32</v>
@@ -7719,7 +7728,7 @@
         <v>32</v>
       </c>
       <c r="R69" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="S69" t="s">
         <v>32</v>
@@ -7740,12 +7749,12 @@
         <v>67</v>
       </c>
       <c r="Y69" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B70" t="s">
         <v>26</v>
@@ -7754,13 +7763,13 @@
         <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E70" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F70" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -7769,7 +7778,7 @@
         <v>32</v>
       </c>
       <c r="I70" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="J70" t="s">
         <v>56</v>
@@ -7793,10 +7802,10 @@
         <v>32</v>
       </c>
       <c r="Q70" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="R70" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="S70" t="s">
         <v>32</v>
@@ -7822,7 +7831,7 @@
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
@@ -7831,16 +7840,16 @@
         <v>27</v>
       </c>
       <c r="D71" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E71" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F71" t="s">
         <v>106</v>
       </c>
       <c r="G71" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="H71" t="s">
         <v>32</v>
@@ -7873,7 +7882,7 @@
         <v>32</v>
       </c>
       <c r="R71" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="S71" t="s">
         <v>32</v>
@@ -7899,16 +7908,16 @@
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B72" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C72" t="s">
         <v>27</v>
       </c>
       <c r="D72" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="E72" t="s">
         <v>63</v>
@@ -7917,13 +7926,13 @@
         <v>64</v>
       </c>
       <c r="G72" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H72" t="s">
         <v>32</v>
       </c>
       <c r="I72" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="J72" t="s">
         <v>56</v>
@@ -7947,16 +7956,16 @@
         <v>32</v>
       </c>
       <c r="Q72" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="R72" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="S72" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="T72" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="U72" t="s">
         <v>36</v>
@@ -7968,33 +7977,33 @@
         <v>32</v>
       </c>
       <c r="X72" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="Y72" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B73" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C73" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D73" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E73" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="F73" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="G73" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H73" t="s">
         <v>32</v>
@@ -8006,7 +8015,7 @@
         <v>56</v>
       </c>
       <c r="K73" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="L73" t="s">
         <v>32</v>
@@ -8027,13 +8036,13 @@
         <v>32</v>
       </c>
       <c r="R73" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="S73" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="T73" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="U73" t="s">
         <v>36</v>
@@ -8045,15 +8054,15 @@
         <v>32</v>
       </c>
       <c r="X73" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="Y73" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -8062,13 +8071,13 @@
         <v>27</v>
       </c>
       <c r="D74" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="E74" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F74" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G74" t="s">
         <v>32</v>
@@ -8077,13 +8086,13 @@
         <v>32</v>
       </c>
       <c r="I74" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="J74" t="s">
         <v>56</v>
       </c>
       <c r="K74" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="L74" t="s">
         <v>32</v>
@@ -8101,10 +8110,10 @@
         <v>32</v>
       </c>
       <c r="Q74" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="R74" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="S74" t="s">
         <v>32</v>
@@ -8125,12 +8134,12 @@
         <v>67</v>
       </c>
       <c r="Y74" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -8139,28 +8148,28 @@
         <v>27</v>
       </c>
       <c r="D75" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="E75" t="s">
         <v>63</v>
       </c>
       <c r="F75" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="G75" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="H75" t="s">
         <v>32</v>
       </c>
       <c r="I75" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="J75" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K75" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="L75" t="s">
         <v>32</v>
@@ -8181,7 +8190,7 @@
         <v>32</v>
       </c>
       <c r="R75" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="S75" t="s">
         <v>32</v>
@@ -8207,7 +8216,7 @@
     </row>
     <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B76" t="s">
         <v>26</v>
@@ -8216,13 +8225,13 @@
         <v>27</v>
       </c>
       <c r="D76" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="E76" t="s">
         <v>63</v>
       </c>
       <c r="F76" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="G76" t="s">
         <v>31</v>
@@ -8234,7 +8243,7 @@
         <v>32</v>
       </c>
       <c r="J76" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="K76" t="s">
         <v>34</v>
@@ -8258,7 +8267,7 @@
         <v>32</v>
       </c>
       <c r="R76" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="S76" t="s">
         <v>32</v>
@@ -8284,7 +8293,7 @@
     </row>
     <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B77" t="s">
         <v>26</v>
@@ -8293,16 +8302,16 @@
         <v>27</v>
       </c>
       <c r="D77" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="E77" t="s">
         <v>63</v>
       </c>
       <c r="F77" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="G77" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="H77" t="s">
         <v>32</v>
@@ -8311,7 +8320,7 @@
         <v>32</v>
       </c>
       <c r="J77" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="K77" t="s">
         <v>34</v>
@@ -8335,7 +8344,7 @@
         <v>32</v>
       </c>
       <c r="R77" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="S77" t="s">
         <v>32</v>
@@ -8361,37 +8370,37 @@
     </row>
     <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B78" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C78" t="s">
         <v>27</v>
       </c>
       <c r="D78" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="E78" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="F78" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="G78" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H78" t="s">
         <v>32</v>
       </c>
       <c r="I78" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="J78" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="K78" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L78" t="s">
         <v>32</v>
@@ -8412,13 +8421,13 @@
         <v>32</v>
       </c>
       <c r="R78" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="S78" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="T78" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="U78" t="s">
         <v>36</v>
@@ -8430,15 +8439,15 @@
         <v>32</v>
       </c>
       <c r="X78" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="Y78" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B79" t="s">
         <v>26</v>
@@ -8447,13 +8456,13 @@
         <v>70</v>
       </c>
       <c r="D79" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="E79" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="F79" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="G79" t="s">
         <v>74</v>
@@ -8462,13 +8471,13 @@
         <v>32</v>
       </c>
       <c r="I79" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="J79" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="K79" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="L79" t="s">
         <v>32</v>
@@ -8489,7 +8498,7 @@
         <v>32</v>
       </c>
       <c r="R79" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="S79" t="s">
         <v>32</v>
@@ -8510,12 +8519,12 @@
         <v>48</v>
       </c>
       <c r="Y79" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B80" t="s">
         <v>26</v>
@@ -8524,28 +8533,28 @@
         <v>27</v>
       </c>
       <c r="D80" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="E80" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="F80" t="s">
         <v>89</v>
       </c>
       <c r="G80" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="H80" t="s">
         <v>32</v>
       </c>
       <c r="I80" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="J80" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="K80" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L80" t="s">
         <v>32</v>
@@ -8566,7 +8575,7 @@
         <v>32</v>
       </c>
       <c r="R80" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="S80" t="s">
         <v>32</v>
@@ -8587,12 +8596,12 @@
         <v>48</v>
       </c>
       <c r="Y80" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
@@ -8601,22 +8610,22 @@
         <v>27</v>
       </c>
       <c r="D81" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="E81" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="F81" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="G81" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H81" t="s">
         <v>32</v>
       </c>
       <c r="I81" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="J81" t="s">
         <v>56</v>
@@ -8643,7 +8652,7 @@
         <v>32</v>
       </c>
       <c r="R81" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="S81" t="s">
         <v>32</v>
@@ -8669,7 +8678,7 @@
     </row>
     <row r="82" spans="1:25">
       <c r="A82" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B82" t="s">
         <v>26</v>
@@ -8678,13 +8687,13 @@
         <v>27</v>
       </c>
       <c r="D82" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E82" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F82" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G82" t="s">
         <v>32</v>
@@ -8696,10 +8705,10 @@
         <v>32</v>
       </c>
       <c r="J82" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K82" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="L82" t="s">
         <v>32</v>
@@ -8720,7 +8729,7 @@
         <v>32</v>
       </c>
       <c r="R82" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="S82" t="s">
         <v>32</v>
@@ -8746,7 +8755,7 @@
     </row>
     <row r="83" spans="1:25">
       <c r="A83" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B83" t="s">
         <v>26</v>
@@ -8755,28 +8764,28 @@
         <v>27</v>
       </c>
       <c r="D83" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="E83" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="F83" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="G83" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H83" t="s">
         <v>32</v>
       </c>
       <c r="I83" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="J83" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="K83" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="L83" t="s">
         <v>32</v>
@@ -8791,13 +8800,13 @@
         <v>32</v>
       </c>
       <c r="P83" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="Q83" t="s">
         <v>32</v>
       </c>
       <c r="R83" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="S83" t="s">
         <v>32</v>
@@ -8823,7 +8832,7 @@
     </row>
     <row r="84" spans="1:25">
       <c r="A84" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B84" t="s">
         <v>26</v>
@@ -8832,28 +8841,28 @@
         <v>27</v>
       </c>
       <c r="D84" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="E84" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F84" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="G84" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H84" t="s">
         <v>32</v>
       </c>
       <c r="I84" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="J84" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="K84" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L84" t="s">
         <v>32</v>
@@ -8874,7 +8883,7 @@
         <v>32</v>
       </c>
       <c r="R84" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="S84" t="s">
         <v>32</v>
@@ -8895,12 +8904,12 @@
         <v>67</v>
       </c>
       <c r="Y84" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B85" t="s">
         <v>26</v>
@@ -8909,7 +8918,7 @@
         <v>27</v>
       </c>
       <c r="D85" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="E85" t="s">
         <v>63</v>
@@ -8918,13 +8927,13 @@
         <v>64</v>
       </c>
       <c r="G85" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H85" t="s">
         <v>32</v>
       </c>
       <c r="I85" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="J85" t="s">
         <v>56</v>
@@ -8948,10 +8957,10 @@
         <v>32</v>
       </c>
       <c r="Q85" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="R85" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="S85" t="s">
         <v>32</v>
@@ -8977,16 +8986,16 @@
     </row>
     <row r="86" spans="1:25">
       <c r="A86" t="s">
+        <v>502</v>
+      </c>
+      <c r="B86" t="s">
         <v>499</v>
-      </c>
-      <c r="B86" t="s">
-        <v>496</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
       </c>
       <c r="D86" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E86" t="s">
         <v>63</v>
@@ -8995,7 +9004,7 @@
         <v>64</v>
       </c>
       <c r="G86" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H86" t="s">
         <v>32</v>
@@ -9022,19 +9031,19 @@
         <v>32</v>
       </c>
       <c r="P86" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="Q86" t="s">
         <v>32</v>
       </c>
       <c r="R86" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="S86" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="T86" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="U86" t="s">
         <v>32</v>
@@ -9054,31 +9063,31 @@
     </row>
     <row r="87" spans="1:25">
       <c r="A87" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B87" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C87" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="D87" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E87" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="F87" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="G87" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H87" t="s">
         <v>32</v>
       </c>
       <c r="I87" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="J87" t="s">
         <v>56</v>
@@ -9105,13 +9114,13 @@
         <v>32</v>
       </c>
       <c r="R87" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S87" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="T87" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="U87" t="s">
         <v>36</v>
@@ -9123,15 +9132,15 @@
         <v>32</v>
       </c>
       <c r="X87" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="Y87" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B88" t="s">
         <v>26</v>
@@ -9140,16 +9149,16 @@
         <v>27</v>
       </c>
       <c r="D88" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="E88" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="F88" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="G88" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="H88" t="s">
         <v>32</v>
@@ -9182,7 +9191,7 @@
         <v>32</v>
       </c>
       <c r="R88" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="S88" t="s">
         <v>32</v>
@@ -9203,12 +9212,12 @@
         <v>67</v>
       </c>
       <c r="Y88" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B89" t="s">
         <v>26</v>
@@ -9217,16 +9226,16 @@
         <v>27</v>
       </c>
       <c r="D89" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="E89" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="F89" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="G89" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H89" t="s">
         <v>32</v>
@@ -9235,10 +9244,10 @@
         <v>32</v>
       </c>
       <c r="J89" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="K89" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L89" t="s">
         <v>32</v>
@@ -9259,7 +9268,7 @@
         <v>32</v>
       </c>
       <c r="R89" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="S89" t="s">
         <v>32</v>
@@ -9285,7 +9294,7 @@
     </row>
     <row r="90" spans="1:25">
       <c r="A90" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B90" t="s">
         <v>26</v>
@@ -9294,13 +9303,13 @@
         <v>27</v>
       </c>
       <c r="D90" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="E90" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="F90" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="G90" t="s">
         <v>90</v>
@@ -9309,13 +9318,13 @@
         <v>32</v>
       </c>
       <c r="I90" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="J90" t="s">
         <v>56</v>
       </c>
       <c r="K90" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="L90" t="s">
         <v>32</v>
@@ -9333,10 +9342,10 @@
         <v>32</v>
       </c>
       <c r="Q90" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="R90" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="S90" t="s">
         <v>32</v>
@@ -9354,15 +9363,15 @@
         <v>32</v>
       </c>
       <c r="X90" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="Y90" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B91" t="s">
         <v>26</v>
@@ -9371,28 +9380,28 @@
         <v>27</v>
       </c>
       <c r="D91" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="E91" t="s">
         <v>63</v>
       </c>
       <c r="F91" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="G91" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H91" t="s">
         <v>32</v>
       </c>
       <c r="I91" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="J91" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="K91" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="L91" t="s">
         <v>32</v>
@@ -9413,7 +9422,7 @@
         <v>32</v>
       </c>
       <c r="R91" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="S91" t="s">
         <v>32</v>
@@ -9439,37 +9448,37 @@
     </row>
     <row r="92" spans="1:25">
       <c r="A92" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B92" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
       </c>
       <c r="D92" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="E92" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="F92" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="G92" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="H92" t="s">
         <v>32</v>
       </c>
       <c r="I92" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="J92" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K92" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="L92" t="s">
         <v>32</v>
@@ -9490,13 +9499,13 @@
         <v>32</v>
       </c>
       <c r="R92" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="S92" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="T92" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="U92" t="s">
         <v>36</v>
@@ -9508,15 +9517,15 @@
         <v>32</v>
       </c>
       <c r="X92" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="Y92" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="93" spans="1:25">
       <c r="A93" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B93" t="s">
         <v>26</v>
@@ -9525,28 +9534,28 @@
         <v>27</v>
       </c>
       <c r="D93" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="E93" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="F93" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G93" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="H93" t="s">
         <v>32</v>
       </c>
       <c r="I93" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="J93" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="K93" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="L93" t="s">
         <v>32</v>
@@ -9567,7 +9576,7 @@
         <v>32</v>
       </c>
       <c r="R93" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="S93" t="s">
         <v>32</v>
@@ -9588,30 +9597,30 @@
         <v>67</v>
       </c>
       <c r="Y93" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="94" spans="1:25">
       <c r="A94" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B94" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C94" t="s">
         <v>27</v>
       </c>
       <c r="D94" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="E94" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="F94" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G94" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="H94" t="s">
         <v>32</v>
@@ -9620,10 +9629,10 @@
         <v>32</v>
       </c>
       <c r="J94" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="K94" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="L94" t="s">
         <v>32</v>
@@ -9644,13 +9653,13 @@
         <v>32</v>
       </c>
       <c r="R94" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="S94" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="T94" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="U94" t="s">
         <v>36</v>
@@ -9662,15 +9671,15 @@
         <v>32</v>
       </c>
       <c r="X94" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="Y94" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="95" spans="1:25">
       <c r="A95" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B95" t="s">
         <v>26</v>
@@ -9679,28 +9688,28 @@
         <v>27</v>
       </c>
       <c r="D95" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="E95" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="F95" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="G95" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H95" t="s">
         <v>32</v>
       </c>
       <c r="I95" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="J95" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="K95" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="L95" t="s">
         <v>32</v>
@@ -9718,10 +9727,10 @@
         <v>32</v>
       </c>
       <c r="Q95" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="R95" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="S95" t="s">
         <v>32</v>
@@ -9742,12 +9751,12 @@
         <v>67</v>
       </c>
       <c r="Y95" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="96" spans="1:25">
       <c r="A96" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B96" t="s">
         <v>26</v>
@@ -9756,10 +9765,10 @@
         <v>27</v>
       </c>
       <c r="D96" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="E96" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="F96" t="s">
         <v>98</v>
@@ -9774,7 +9783,7 @@
         <v>32</v>
       </c>
       <c r="J96" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="K96" t="s">
         <v>34</v>
@@ -9798,7 +9807,7 @@
         <v>32</v>
       </c>
       <c r="R96" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="S96" t="s">
         <v>32</v>
@@ -9824,22 +9833,22 @@
     </row>
     <row r="97" spans="1:25">
       <c r="A97" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B97" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C97" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="D97" t="s">
         <v>51</v>
       </c>
       <c r="E97" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="F97" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="G97" t="s">
         <v>54</v>
@@ -9848,13 +9857,13 @@
         <v>32</v>
       </c>
       <c r="I97" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="J97" t="s">
         <v>56</v>
       </c>
       <c r="K97" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="L97" t="s">
         <v>32</v>
@@ -9875,10 +9884,10 @@
         <v>32</v>
       </c>
       <c r="R97" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="S97" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="T97" t="s">
         <v>32</v>
@@ -9893,45 +9902,45 @@
         <v>32</v>
       </c>
       <c r="X97" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="Y97" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="98" spans="1:25">
       <c r="A98" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B98" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
       </c>
       <c r="D98" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E98" t="s">
         <v>63</v>
       </c>
       <c r="F98" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G98" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H98" t="s">
         <v>32</v>
       </c>
       <c r="I98" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="J98" t="s">
         <v>45</v>
       </c>
       <c r="K98" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L98" t="s">
         <v>32</v>
@@ -9952,13 +9961,13 @@
         <v>32</v>
       </c>
       <c r="R98" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="S98" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="T98" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="U98" t="s">
         <v>36</v>
@@ -9970,15 +9979,15 @@
         <v>32</v>
       </c>
       <c r="X98" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="Y98" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="99" spans="1:25">
       <c r="A99" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="B99" t="s">
         <v>26</v>
@@ -9987,13 +9996,13 @@
         <v>27</v>
       </c>
       <c r="D99" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="E99" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="F99" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G99" t="s">
         <v>107</v>
@@ -10005,7 +10014,7 @@
         <v>32</v>
       </c>
       <c r="J99" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="K99" t="s">
         <v>34</v>
@@ -10029,7 +10038,7 @@
         <v>32</v>
       </c>
       <c r="R99" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="S99" t="s">
         <v>32</v>
@@ -10055,34 +10064,34 @@
     </row>
     <row r="100" spans="1:25">
       <c r="A100" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="B100" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
       </c>
       <c r="D100" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="E100" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="F100" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="G100" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H100" t="s">
         <v>32</v>
       </c>
       <c r="I100" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="J100" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="K100" t="s">
         <v>34</v>
@@ -10106,13 +10115,13 @@
         <v>32</v>
       </c>
       <c r="R100" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="S100" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="T100" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="U100" t="s">
         <v>36</v>
@@ -10124,15 +10133,15 @@
         <v>32</v>
       </c>
       <c r="X100" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="Y100" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="101" spans="1:25">
       <c r="A101" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B101" t="s">
         <v>26</v>
@@ -10141,13 +10150,13 @@
         <v>27</v>
       </c>
       <c r="D101" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="E101" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="F101" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G101" t="s">
         <v>107</v>
@@ -10159,10 +10168,10 @@
         <v>32</v>
       </c>
       <c r="J101" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="K101" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="L101" t="s">
         <v>32</v>
@@ -10183,7 +10192,7 @@
         <v>32</v>
       </c>
       <c r="R101" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="S101" t="s">
         <v>32</v>
